--- a/Team-Data/2012-13/1-13-2012-13.xlsx
+++ b/Team-Data/2012-13/1-13-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,19 +811,19 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH2" t="n">
         <v>11</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
@@ -768,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
@@ -816,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
@@ -959,7 +1026,7 @@
         <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
         <v>24</v>
@@ -983,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>27</v>
@@ -998,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="BB3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -1030,73 +1097,73 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.595</v>
+        <v>0.583</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L4" t="n">
         <v>7.5</v>
       </c>
       <c r="M4" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O4" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P4" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.744</v>
       </c>
       <c r="R4" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S4" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
         <v>14.4</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
         <v>4.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA4" t="n">
         <v>21.4</v>
@@ -1105,25 +1172,25 @@
         <v>96.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
@@ -1135,10 +1202,10 @@
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1147,10 +1214,10 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
@@ -1159,10 +1226,10 @@
         <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
@@ -1180,10 +1247,10 @@
         <v>5</v>
       </c>
       <c r="BB4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
@@ -1320,13 +1387,13 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
         <v>3</v>
       </c>
       <c r="AP5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
@@ -1335,13 +1402,13 @@
         <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT5" t="n">
         <v>18</v>
       </c>
       <c r="AU5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV5" t="n">
         <v>6</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1520,13 +1587,13 @@
         <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
@@ -1535,7 +1602,7 @@
         <v>18</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
         <v>13</v>
@@ -1547,7 +1614,7 @@
         <v>26</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>0.231</v>
+        <v>0.237</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J7" t="n">
-        <v>84.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.418</v>
+        <v>0.419</v>
       </c>
       <c r="L7" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M7" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P7" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R7" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S7" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T7" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U7" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="V7" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W7" t="n">
         <v>8.300000000000001</v>
@@ -1639,22 +1706,22 @@
         <v>3.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z7" t="n">
         <v>22.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.7</v>
+        <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1666,13 +1733,13 @@
         <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
@@ -1681,31 +1748,31 @@
         <v>10</v>
       </c>
       <c r="AM7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU7" t="n">
         <v>30</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>29</v>
       </c>
       <c r="AV7" t="n">
         <v>21</v>
@@ -1723,7 +1790,7 @@
         <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
@@ -1851,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>5</v>
@@ -1869,10 +1936,10 @@
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
         <v>6</v>
@@ -1887,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV8" t="n">
         <v>17</v>
@@ -1896,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
         <v>10</v>
@@ -1905,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -1940,97 +2007,97 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
         <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.59</v>
+        <v>0.579</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J9" t="n">
-        <v>84.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K9" t="n">
         <v>0.464</v>
       </c>
       <c r="L9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N9" t="n">
         <v>0.329</v>
       </c>
       <c r="O9" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P9" t="n">
         <v>25.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.68</v>
+        <v>0.678</v>
       </c>
       <c r="R9" t="n">
         <v>14.2</v>
       </c>
       <c r="S9" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T9" t="n">
         <v>46.4</v>
       </c>
       <c r="U9" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V9" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA9" t="n">
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.4</v>
+        <v>102</v>
       </c>
       <c r="AC9" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2072,19 +2139,19 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2230,10 +2297,10 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2251,10 +2318,10 @@
         <v>7</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>29</v>
@@ -2269,7 +2336,7 @@
         <v>18</v>
       </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -2304,94 +2371,94 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
         <v>23</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.639</v>
+        <v>0.657</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
         <v>83.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.392</v>
+        <v>0.387</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.792</v>
+        <v>0.793</v>
       </c>
       <c r="R11" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="S11" t="n">
         <v>34.1</v>
       </c>
       <c r="T11" t="n">
-        <v>45.2</v>
+        <v>45.4</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V11" t="n">
         <v>15.4</v>
       </c>
       <c r="W11" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X11" t="n">
         <v>4.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>10</v>
@@ -2412,28 +2479,28 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>27</v>
@@ -2451,13 +2518,13 @@
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2600,7 +2667,7 @@
         <v>4</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>15</v>
@@ -2627,7 +2694,7 @@
         <v>28</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>8</v>
@@ -2636,10 +2703,10 @@
         <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -2668,22 +2735,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.605</v>
+        <v>0.622</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="J13" t="n">
         <v>81</v>
@@ -2695,61 +2762,61 @@
         <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="O13" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P13" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R13" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="S13" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T13" t="n">
-        <v>46.1</v>
+        <v>46.3</v>
       </c>
       <c r="U13" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W13" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X13" t="n">
         <v>6.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z13" t="n">
         <v>19.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>90.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE13" t="n">
         <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2776,22 +2843,22 @@
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>24</v>
       </c>
       <c r="AR13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -2800,28 +2867,28 @@
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
         <v>14</v>
       </c>
       <c r="BA13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
@@ -2982,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2997,7 +3064,7 @@
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -3032,37 +3099,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
         <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>0.432</v>
+        <v>0.417</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.455</v>
+        <v>0.452</v>
       </c>
       <c r="L15" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
         <v>25.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O15" t="n">
         <v>19.9</v>
@@ -3071,76 +3138,76 @@
         <v>28.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.695</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="S15" t="n">
         <v>32.7</v>
       </c>
       <c r="T15" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U15" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>5.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.4</v>
+        <v>103.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
         <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
         <v>11</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3161,22 +3228,22 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3185,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3325,10 +3392,10 @@
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -3352,16 +3419,16 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3504,7 +3571,7 @@
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3531,10 +3598,10 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -3578,106 +3645,106 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>0.528</v>
+        <v>0.514</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J18" t="n">
-        <v>85.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.432</v>
       </c>
       <c r="L18" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>17.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O18" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="P18" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="R18" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="T18" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="V18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG18" t="n">
         <v>16</v>
-      </c>
-      <c r="P18" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R18" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="S18" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="T18" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="V18" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="X18" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,34 +3753,34 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>16</v>
       </c>
       <c r="AT18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>11</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
@@ -3722,16 +3789,16 @@
         <v>4</v>
       </c>
       <c r="AZ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -3760,91 +3827,91 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.471</v>
+        <v>0.485</v>
       </c>
       <c r="H19" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J19" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.429</v>
+        <v>0.431</v>
       </c>
       <c r="L19" t="n">
         <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.297</v>
+        <v>0.298</v>
       </c>
       <c r="O19" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="R19" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="T19" t="n">
-        <v>45.2</v>
+        <v>45.4</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.2</v>
+        <v>-0.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3853,10 +3920,10 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3874,7 +3941,7 @@
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3886,22 +3953,22 @@
         <v>11</v>
       </c>
       <c r="AT19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AX19" t="n">
         <v>11</v>
       </c>
       <c r="AY19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>3</v>
@@ -3910,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -3942,43 +4009,43 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
         <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.297</v>
+        <v>0.306</v>
       </c>
       <c r="H20" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I20" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J20" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.368</v>
+        <v>0.375</v>
       </c>
       <c r="O20" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="P20" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="Q20" t="n">
         <v>0.777</v>
@@ -3987,16 +4054,16 @@
         <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W20" t="n">
         <v>6.4</v>
@@ -4005,22 +4072,22 @@
         <v>5.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>91.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4032,7 +4099,7 @@
         <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
@@ -4050,7 +4117,7 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>27</v>
@@ -4062,7 +4129,7 @@
         <v>9</v>
       </c>
       <c r="AR20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS20" t="n">
         <v>20</v>
@@ -4074,22 +4141,22 @@
         <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
         <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>0.649</v>
+        <v>0.639</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J21" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.445</v>
@@ -4154,70 +4221,70 @@
         <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O21" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P21" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R21" t="n">
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U21" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V21" t="n">
         <v>11.1</v>
       </c>
       <c r="W21" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y21" t="n">
         <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB21" t="n">
         <v>101.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ21" t="n">
         <v>6</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4250,7 +4317,7 @@
         <v>26</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4268,7 +4335,7 @@
         <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -4306,52 +4373,52 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
         <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.784</v>
+        <v>0.778</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J22" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M22" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.392</v>
+        <v>0.396</v>
       </c>
       <c r="O22" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="P22" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T22" t="n">
         <v>43.4</v>
@@ -4366,25 +4433,25 @@
         <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.2</v>
+        <v>105.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4408,13 +4475,13 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4432,16 +4499,16 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4450,13 +4517,13 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-2.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>24</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
@@ -4757,7 +4824,7 @@
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
@@ -4799,7 +4866,7 @@
         <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-4.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>24</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG25" t="n">
         <v>26</v>
@@ -4945,16 +5012,16 @@
         <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK25" t="n">
         <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM25" t="n">
         <v>23</v>
@@ -4969,7 +5036,7 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>16</v>
@@ -4978,7 +5045,7 @@
         <v>28</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
         <v>13</v>
@@ -4987,19 +5054,19 @@
         <v>5</v>
       </c>
       <c r="AW25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX25" t="n">
         <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ25" t="n">
         <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>0.541</v>
+        <v>0.556</v>
       </c>
       <c r="H26" t="n">
         <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J26" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M26" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O26" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
         <v>12</v>
@@ -5085,13 +5152,13 @@
         <v>41.7</v>
       </c>
       <c r="U26" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V26" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W26" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X26" t="n">
         <v>4.8</v>
@@ -5100,31 +5167,31 @@
         <v>4.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA26" t="n">
         <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
       </c>
       <c r="AF26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG26" t="n">
         <v>13</v>
       </c>
-      <c r="AG26" t="n">
-        <v>14</v>
-      </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI26" t="n">
         <v>20</v>
@@ -5133,7 +5200,7 @@
         <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
         <v>20</v>
@@ -5151,7 +5218,7 @@
         <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="n">
         <v>13</v>
@@ -5160,16 +5227,16 @@
         <v>22</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AX26" t="n">
         <v>21</v>
@@ -5184,7 +5251,7 @@
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
@@ -5327,7 +5394,7 @@
         <v>15</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP27" t="n">
         <v>14</v>
@@ -5339,7 +5406,7 @@
         <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT27" t="n">
         <v>25</v>
@@ -5351,13 +5418,13 @@
         <v>12</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
         <v>25</v>
@@ -5366,7 +5433,7 @@
         <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.725</v>
+        <v>0.718</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="J28" t="n">
         <v>81.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.485</v>
+        <v>0.483</v>
       </c>
       <c r="L28" t="n">
         <v>8.800000000000001</v>
@@ -5431,49 +5498,49 @@
         <v>0.389</v>
       </c>
       <c r="O28" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0.795</v>
       </c>
       <c r="R28" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S28" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T28" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
         <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AB28" t="n">
         <v>104.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5500,19 +5567,19 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>3</v>
@@ -5521,10 +5588,10 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5536,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" t="n">
         <v>14</v>
       </c>
       <c r="F29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>0.378</v>
+        <v>0.389</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
@@ -5598,103 +5665,103 @@
         <v>35.8</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.437</v>
       </c>
       <c r="L29" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O29" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P29" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q29" t="n">
         <v>0.775</v>
       </c>
       <c r="R29" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T29" t="n">
         <v>40</v>
       </c>
       <c r="U29" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V29" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W29" t="n">
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
         <v>5.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB29" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
         <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
         <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
@@ -5703,7 +5770,7 @@
         <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5715,10 +5782,10 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB29" t="n">
         <v>14</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5858,7 +5925,7 @@
         <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
         <v>13</v>
@@ -5870,7 +5937,7 @@
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5903,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6128,7 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>15</v>
@@ -6076,16 +6143,16 @@
         <v>23</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>23</v>
       </c>
       <c r="AX31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-13-2012-13</t>
+          <t>2013-01-13</t>
         </is>
       </c>
     </row>
